--- a/Cuadros/q16.xlsx
+++ b/Cuadros/q16.xlsx
@@ -1,60 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D30C5-28F5-44ED-87D7-F8914ECCD8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="q15_cant" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="q16_50percent" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="q16_30percent" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="q15_cant" sheetId="1" r:id="rId1"/>
+    <sheet name="q16_50percent" sheetId="2" r:id="rId2"/>
+    <sheet name="q16_30percent" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">selection_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 opions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 or more options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+  <si>
+    <t>selection_category</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1 option</t>
+  </si>
+  <si>
+    <t>2 opions</t>
+  </si>
+  <si>
+    <t>3 options</t>
+  </si>
+  <si>
+    <t>4 or more options</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Organizaciones que indicaron que el 50% o más de sus fondos externos provenían de fuentes feministas</t>
+  </si>
+  <si>
+    <t>Organizaciones que indicaron que el 30% o más de sus fondos externos provenían de fuentes feministas</t>
+  </si>
+  <si>
+    <t>Organizaciones según cantidad de fuentes de las que reciben fondos externos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,6 +106,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -371,14 +396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,53 +416,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>285</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>276</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>169</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -446,49 +483,56 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>190</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>164</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>135</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>459</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>454</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -502,36 +546,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>273</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>228</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>197</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>459</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>454</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>